--- a/medicine/Enfance/Child_Protective_Services/Child_Protective_Services.xlsx
+++ b/medicine/Enfance/Child_Protective_Services/Child_Protective_Services.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Child Protective Services (CPS), en français service de protection de l'enfance, est le nom d'une agence gouvernementale présente dans de nombreux États des États-Unis, responsable de la protection de l'enfance, ce qui inclut de répondre aux signalements de maltraitance ou de négligence. Certains états ont recours à d'autres noms, souvent pour refléter des missions plus centrées sur la famille. Le CPS est aussi connu sous le nom de « Department of Social Services » (DSS), ou simplement « Social Services » (services sociaux).
 Autres Noms et Sigles pour le CPS : 
@@ -516,7 +528,9 @@
           <t>Lois et normes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les lois fédérales des États-Unis qui régissent les CPS sont :
 Child Abuse Prevention and treatment Act (CAPTA)
@@ -553,9 +567,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1690 existait une cour pénale pour les cas de violence sexuelle sur enfant[1]. En 1692, les États et les municipalités ont identifié des besoins de soins aux enfants maltraités et négligés, de la responsabilité des collectivités locales et des établissements privés[2]. En 1696, Le Royaume d'Angleterre a d'abord utilisé le principe juridique de la doctrine parens patriae, qui a donné à la couronne royale le soins de s'occuper des « organismes de bienfaisance pour les nourrissons, les idiots et les fous retournés à la chancellerie ». Ce principe de la doctrine parens patriae a été identifié comme la base légale de l'intervention gouvernementale parmi les familles pour s'occuper des cas de maltraitance et négligence infantiles[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1690 existait une cour pénale pour les cas de violence sexuelle sur enfant. En 1692, les États et les municipalités ont identifié des besoins de soins aux enfants maltraités et négligés, de la responsabilité des collectivités locales et des établissements privés. En 1696, Le Royaume d'Angleterre a d'abord utilisé le principe juridique de la doctrine parens patriae, qui a donné à la couronne royale le soins de s'occuper des « organismes de bienfaisance pour les nourrissons, les idiots et les fous retournés à la chancellerie ». Ce principe de la doctrine parens patriae a été identifié comme la base légale de l'intervention gouvernementale parmi les familles pour s'occuper des cas de maltraitance et négligence infantiles.
 </t>
         </is>
       </c>
